--- a/E01/Project_02/top_holdings_1.xlsx
+++ b/E01/Project_02/top_holdings_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,56 +538,6 @@
         <v>0.5015914709407675</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Stock 11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.879417462024168</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Stock 12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2750064007006836</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Stock 13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5005374588031359</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Stock 14</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2345499020670309</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Stock 15</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3371491136649515</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
